--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C080B-36DF-4CE1-BA44-8528705681B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99D919-9AA4-4D40-A426-E464177BC842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -87,15 +87,6 @@
     <t>Source coverage</t>
   </si>
   <si>
-    <t>IOTC form 2-FC | metadata</t>
-  </si>
-  <si>
-    <t>2-FC</t>
-  </si>
-  <si>
-    <t>IOTC form 2-FC | data</t>
-  </si>
-  <si>
     <t>Boat</t>
   </si>
   <si>
@@ -148,6 +139,15 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>IOTC Form 2FC | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 2FC | metadata</t>
+  </si>
+  <si>
+    <t>2FC</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1226,14 +1226,14 @@
         <v>11</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1274,7 +1274,7 @@
       <c r="D8" s="65"/>
       <c r="E8" s="20"/>
       <c r="F8" s="65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="21"/>
@@ -1295,12 +1295,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1317,7 +1317,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="20"/>
@@ -1388,7 +1388,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1468,7 +1468,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a1SADIKq0z0sd+yaGbcDH+dFBmygbYTsaO3yIXDWQJqWzHvU0GmHSK+/usS787bW2CsnJc/8IBTUy6BBIdUYuw==" saltValue="aqGh9SdkyTH++OHpLZDYfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w/Sd8CdPoK9kMXIIHvtCqCxlsNxkRIYXRlsbkPN7t7OtYwynC5qOcUaRGK8py+HFpnS0SJQvlOOER3APjmzprg==" saltValue="9SrbxezquX+P+6pr6612ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1577,7 +1577,7 @@
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="72" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="72" t="s">
@@ -1590,28 +1590,28 @@
       </c>
       <c r="H4" s="74"/>
       <c r="I4" s="72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" s="74"/>
       <c r="M4" s="72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N4" s="73"/>
       <c r="O4" s="74"/>
       <c r="P4" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>10</v>
@@ -1626,16 +1626,16 @@
         <v>10</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
@@ -1644,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="N5" s="60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P5" s="55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
       <c r="M55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JJeI7i/uyZuvASGwYgXApmuvK7gkkGPdAsKpogktDRIoANXG0lDaOMh/oBoOhicKBptgQKqJumK4dcZK7p676A==" saltValue="ZROfoDb0VyDCJEJp+idGFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OEzrO9hfZiM4GtdvGAz5ePNz68nf7hNuvQD2qAabEfb2KoLZn1a1FnKHAQjByEoeEN8kl+eYLo/laKUmfC0ieg==" saltValue="p6vBO5QCKi3s7WQ0Iig+rw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>

--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99D919-9AA4-4D40-A426-E464177BC842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3B54C-85C7-4266-8C49-D9ABFF2A81BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>2FC</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1223,17 +1223,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1274,7 +1274,7 @@
       <c r="D8" s="65"/>
       <c r="E8" s="20"/>
       <c r="F8" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="21"/>
@@ -1295,12 +1295,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1317,7 +1317,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="20"/>
@@ -1328,7 +1328,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="20"/>
@@ -1377,7 +1377,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="20"/>
@@ -1388,7 +1388,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1399,7 +1399,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="42" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
@@ -1428,7 +1428,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="20"/>
@@ -1468,7 +1468,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w/Sd8CdPoK9kMXIIHvtCqCxlsNxkRIYXRlsbkPN7t7OtYwynC5qOcUaRGK8py+HFpnS0SJQvlOOER3APjmzprg==" saltValue="9SrbxezquX+P+6pr6612ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q5VIGeWzBQhvuiMt3B8isHLowZVcjXfE4TYgYXqRDOH4bpGgcLjS1fkdVlYpez/AWtT2PkBy8ehWTXcz8Iw6/w==" saltValue="TP57JhyBxKnNHPHSWgF5Vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1482,7 +1482,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{1442B3F2-6122-44BA-A4A6-8B72CAE14165}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{36E4CE57-0E51-4624-84D7-B89CC49ED5B7}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{36E4CE57-0E51-4624-84D7-B89CC49ED5B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -1577,80 +1577,80 @@
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="74"/>
       <c r="G4" s="72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="74"/>
       <c r="I4" s="72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="74"/>
       <c r="M4" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="73"/>
       <c r="O4" s="74"/>
       <c r="P4" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="56" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="P5" s="55" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">

--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3B54C-85C7-4266-8C49-D9ABFF2A81BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780E91D-DB2A-42EF-8206-387D73BEB4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -845,6 +845,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1613,7 +1617,7 @@
       <c r="C5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="75" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="58" t="s">
@@ -2357,7 +2361,7 @@
       <c r="M55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OEzrO9hfZiM4GtdvGAz5ePNz68nf7hNuvQD2qAabEfb2KoLZn1a1FnKHAQjByEoeEN8kl+eYLo/laKUmfC0ieg==" saltValue="p6vBO5QCKi3s7WQ0Iig+rw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L8q0v0L7cM7aMIZDJw+B/CQn1+sDXeES8rNDpME11bi/8OaZlYivjqZjp12gEJqSQg9lvLTJq+mFTTqhqtn8uA==" saltValue="o1KHuHeyi2XfkM46pYpHtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>

--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780E91D-DB2A-42EF-8206-387D73BEB4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F88A2-31D2-490E-90C5-CC2D24FD4E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Focal point</t>
   </si>
@@ -114,9 +114,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>IOTC area</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>Flag state</t>
+  </si>
+  <si>
+    <t>Main elements</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -804,6 +807,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -845,10 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,24 +1208,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="B2" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -1230,14 +1233,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1272,15 +1275,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="65"/>
+      <c r="F8" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="66"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,12 +1302,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1321,7 +1324,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="20"/>
@@ -1392,7 +1395,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1403,7 +1406,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
@@ -1451,11 +1454,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1542,82 +1545,82 @@
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="B2" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="72" t="s">
+      <c r="B4" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="72" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="72" t="s">
+      <c r="J4" s="75"/>
+      <c r="K4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="58" t="s">
@@ -1642,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M5" s="56" t="s">
         <v>9</v>
@@ -2361,7 +2364,7 @@
       <c r="M55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L8q0v0L7cM7aMIZDJw+B/CQn1+sDXeES8rNDpME11bi/8OaZlYivjqZjp12gEJqSQg9lvLTJq+mFTTqhqtn8uA==" saltValue="o1KHuHeyi2XfkM46pYpHtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9wm5KxQBvaSoGcVWZhpcZByP5kKefPRqeb3RJ/rGLtAXHyBbbNqqPlLgHHjcYlVBA/O8zFg+fZsVipAvIIFQiQ==" saltValue="fQTx0oBU3rfh33Gh5MtEIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -2376,8 +2379,11 @@
       <formula>B6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:M5 B5:G5" xr:uid="{62AC337C-43B8-43CC-ABCC-7EE87C42A16F}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:G5 I5:K5 M5" xr:uid="{62AC337C-43B8-43CC-ABCC-7EE87C42A16F}">
+      <formula1>"&lt;0&gt;0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5" xr:uid="{FC838703-B75A-43B5-B023-13160A0C8CB9}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2390,7 +2396,7 @@
     <hyperlink ref="I5" r:id="rId6" location="boatTypes" xr:uid="{DADB17F2-537E-4DBC-AFEA-6EE304F8C6D0}"/>
     <hyperlink ref="J5" r:id="rId7" location="mechanizationTypes" xr:uid="{40C3FFA1-CD46-4638-8E84-B19E43E165D4}"/>
     <hyperlink ref="K5" r:id="rId8" location="fishPreservationMethods" xr:uid="{2A56DBD0-E939-42A6-98DA-87DA852FD2E9}"/>
-    <hyperlink ref="L5" r:id="rId9" location="fishProcessingTypes" xr:uid="{9C5A0F26-DE48-4B7A-BF87-82196056DE69}"/>
+    <hyperlink ref="L5" r:id="rId9" location="fishStorageTypes" xr:uid="{9C5A0F26-DE48-4B7A-BF87-82196056DE69}"/>
     <hyperlink ref="M5" r:id="rId10" location="boatClassTypes" xr:uid="{263265AE-A782-4C7E-A95B-56C7C8AA2144}"/>
     <hyperlink ref="B5" r:id="rId11" location="fisheries" xr:uid="{9C9CCABD-E884-4981-9553-0A805CCD876C}"/>
   </hyperlinks>

--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F88A2-31D2-490E-90C5-CC2D24FD4E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045DC96-AB39-457F-AEF5-97A7DBFAB79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Focal point</t>
   </si>
@@ -114,9 +114,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>IOTC area</t>
-  </si>
-  <si>
     <t>Reporting entity</t>
   </si>
   <si>
@@ -147,10 +144,10 @@
     <t>Flag state</t>
   </si>
   <si>
-    <t>Main elements</t>
-  </si>
-  <si>
     <t>Storage</t>
+  </si>
+  <si>
+    <t>Main element</t>
   </si>
 </sst>
 </file>
@@ -626,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -810,6 +807,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1208,24 +1208,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -1233,14 +1233,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1275,15 +1275,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="66"/>
+      <c r="F8" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="67"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,12 +1302,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1324,7 +1324,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="20"/>
@@ -1395,7 +1395,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1406,7 +1406,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
@@ -1454,11 +1454,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -1511,23 +1511,22 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="38"/>
-    <col min="10" max="10" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="38"/>
-    <col min="14" max="14" width="9.140625" style="49"/>
-    <col min="15" max="15" width="9.140625" style="50"/>
-    <col min="16" max="16" width="9.140625" style="52"/>
+    <col min="3" max="3" width="11.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="9" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="38" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="38"/>
+    <col min="13" max="13" width="9.140625" style="49"/>
+    <col min="14" max="14" width="9.140625" style="50"/>
+    <col min="15" max="15" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -1541,866 +1540,804 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="73" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="73" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="73" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="33" t="s">
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="F5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="I5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="J5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="56" t="s">
+      <c r="K5" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="M5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="N5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="51"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="36"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="36"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="36"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="36"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="36"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="36"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="36"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="36"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="36"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="36"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="36"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="36"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="36"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="36"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="36"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="36"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="36"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="36"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="36"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="36"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="36"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="36"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="36"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="36"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="36"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="36"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="36"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="36"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="36"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="36"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="36"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="36"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="36"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="36"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="36"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="36"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="36"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="36"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="36"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="36"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="36"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="36"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9wm5KxQBvaSoGcVWZhpcZByP5kKefPRqeb3RJ/rGLtAXHyBbbNqqPlLgHHjcYlVBA/O8zFg+fZsVipAvIIFQiQ==" saltValue="fQTx0oBU3rfh33Gh5MtEIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4/x7C4c4a0AVjOBj6btm9hOkWI9rn64Xb2MGYaWzP1gOCmRzIyayQx4ap4mNv9s4uluXIm2VuMoUCNU9Zv82wg==" saltValue="9FPR1JcRdNMeuwdMyreDEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:P1048576">
+  <conditionalFormatting sqref="B6:O1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>B6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:G5 I5:K5 M5" xr:uid="{62AC337C-43B8-43CC-ABCC-7EE87C42A16F}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5" xr:uid="{FC838703-B75A-43B5-B023-13160A0C8CB9}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:L5 B5:F5" xr:uid="{62AC337C-43B8-43CC-ABCC-7EE87C42A16F}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="IOTCareasMain" xr:uid="{51E5C891-8AF9-4A30-9A9C-D3EF2615C20A}"/>
-    <hyperlink ref="D5" r:id="rId2" location="types" xr:uid="{37DC6134-83EB-4EAA-AE13-E456A3F41FF0}"/>
-    <hyperlink ref="E5" r:id="rId3" location="sourcesFC" xr:uid="{D508B0C5-71F1-4418-BA5D-6D532A3A0D47}"/>
-    <hyperlink ref="F5" r:id="rId4" location="processingsFC" xr:uid="{3B28F9E8-FD32-4256-82C2-97BF03FEE964}"/>
-    <hyperlink ref="G5" r:id="rId5" location="coverageTypes" xr:uid="{15A256B6-6B98-4ABF-81CC-D96AC29A08E2}"/>
-    <hyperlink ref="I5" r:id="rId6" location="boatTypes" xr:uid="{DADB17F2-537E-4DBC-AFEA-6EE304F8C6D0}"/>
-    <hyperlink ref="J5" r:id="rId7" location="mechanizationTypes" xr:uid="{40C3FFA1-CD46-4638-8E84-B19E43E165D4}"/>
-    <hyperlink ref="K5" r:id="rId8" location="fishPreservationMethods" xr:uid="{2A56DBD0-E939-42A6-98DA-87DA852FD2E9}"/>
-    <hyperlink ref="L5" r:id="rId9" location="fishStorageTypes" xr:uid="{9C5A0F26-DE48-4B7A-BF87-82196056DE69}"/>
-    <hyperlink ref="M5" r:id="rId10" location="boatClassTypes" xr:uid="{263265AE-A782-4C7E-A95B-56C7C8AA2144}"/>
-    <hyperlink ref="B5" r:id="rId11" location="fisheries" xr:uid="{9C9CCABD-E884-4981-9553-0A805CCD876C}"/>
+    <hyperlink ref="C5" r:id="rId1" location="types" xr:uid="{37DC6134-83EB-4EAA-AE13-E456A3F41FF0}"/>
+    <hyperlink ref="D5" r:id="rId2" location="sourcesFC" xr:uid="{D508B0C5-71F1-4418-BA5D-6D532A3A0D47}"/>
+    <hyperlink ref="E5" r:id="rId3" location="processingsFC" xr:uid="{3B28F9E8-FD32-4256-82C2-97BF03FEE964}"/>
+    <hyperlink ref="F5" r:id="rId4" location="coverageTypes" xr:uid="{15A256B6-6B98-4ABF-81CC-D96AC29A08E2}"/>
+    <hyperlink ref="H5" r:id="rId5" location="boatTypes" xr:uid="{DADB17F2-537E-4DBC-AFEA-6EE304F8C6D0}"/>
+    <hyperlink ref="I5" r:id="rId6" location="mechanizationTypes" xr:uid="{40C3FFA1-CD46-4638-8E84-B19E43E165D4}"/>
+    <hyperlink ref="J5" r:id="rId7" location="fishPreservationMethods" xr:uid="{2A56DBD0-E939-42A6-98DA-87DA852FD2E9}"/>
+    <hyperlink ref="K5" r:id="rId8" location="fishStorageTypes" xr:uid="{9C5A0F26-DE48-4B7A-BF87-82196056DE69}"/>
+    <hyperlink ref="L5" r:id="rId9" location="boatClassTypes" xr:uid="{263265AE-A782-4C7E-A95B-56C7C8AA2144}"/>
+    <hyperlink ref="B5" r:id="rId10" location="fisheries" xr:uid="{9C9CCABD-E884-4981-9553-0A805CCD876C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045DC96-AB39-457F-AEF5-97A7DBFAB79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845D10ED-26C0-4AFA-A782-51396EC7B35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -155,8 +155,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -722,10 +722,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -852,6 +848,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -894,9 +894,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -934,7 +934,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1040,7 +1040,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1182,7 +1182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1208,24 +1208,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -1275,15 +1275,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
       <c r="C12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -1337,7 +1337,7 @@
       <c r="C13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="9"/>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="9"/>
@@ -1454,11 +1454,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q5VIGeWzBQhvuiMt3B8isHLowZVcjXfE4TYgYXqRDOH4bpGgcLjS1fkdVlYpez/AWtT2PkBy8ehWTXcz8Iw6/w==" saltValue="TP57JhyBxKnNHPHSWgF5Vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UtmsZW94t+htO/8S/IHOaiN1KOymNKwKf4Uv0BqYjd/58oJHEt6UsAoE3YQ26XelBmCbVZh6vnqECJ2HtLN3kQ==" saltValue="P0SPyow0+ESsBbdNdmJdpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1512,18 +1512,18 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="42" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="39" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="45" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="38"/>
     <col min="9" max="9" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="38" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="39" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="38"/>
-    <col min="13" max="13" width="9.140625" style="49"/>
-    <col min="14" max="14" width="9.140625" style="50"/>
-    <col min="15" max="15" width="9.140625" style="52"/>
+    <col min="13" max="13" width="9.140625" style="48"/>
+    <col min="14" max="14" width="9.140625" style="49"/>
+    <col min="15" max="15" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1543,112 +1543,112 @@
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="74" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="74" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="74" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="74" t="s">
+      <c r="K4" s="75"/>
+      <c r="L4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1658,15 +1658,15 @@
       <c r="D6" s="12"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="34"/>
       <c r="I6" s="35"/>
       <c r="J6" s="34"/>
       <c r="K6" s="35"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="51"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -1674,7 +1674,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
       <c r="J7" s="36"/>
@@ -1687,7 +1687,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="36"/>
       <c r="I8" s="37"/>
       <c r="J8" s="36"/>
@@ -1700,7 +1700,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="36"/>
       <c r="I9" s="37"/>
       <c r="J9" s="36"/>
@@ -1713,7 +1713,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="36"/>
       <c r="I10" s="37"/>
       <c r="J10" s="36"/>
@@ -1726,7 +1726,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
       <c r="J11" s="36"/>
@@ -1739,7 +1739,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="36"/>
       <c r="I12" s="37"/>
       <c r="J12" s="36"/>
@@ -1752,7 +1752,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="36"/>
       <c r="I13" s="37"/>
       <c r="J13" s="36"/>
@@ -1765,7 +1765,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="45"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
       <c r="J14" s="36"/>
@@ -1778,7 +1778,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="45"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="36"/>
@@ -1791,7 +1791,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="45"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="36"/>
       <c r="I16" s="37"/>
       <c r="J16" s="36"/>
@@ -1804,7 +1804,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="45"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="36"/>
       <c r="I17" s="37"/>
       <c r="J17" s="36"/>
@@ -1817,7 +1817,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="45"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
       <c r="J18" s="36"/>
@@ -1830,7 +1830,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="45"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="36"/>
       <c r="I19" s="37"/>
       <c r="J19" s="36"/>
@@ -1843,7 +1843,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="45"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="36"/>
@@ -1856,7 +1856,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="45"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="36"/>
       <c r="I21" s="37"/>
       <c r="J21" s="36"/>
@@ -1869,7 +1869,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="45"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="36"/>
@@ -1882,7 +1882,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="45"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="36"/>
       <c r="I23" s="37"/>
       <c r="J23" s="36"/>
@@ -1895,7 +1895,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="45"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="36"/>
       <c r="I24" s="37"/>
       <c r="J24" s="36"/>
@@ -1908,7 +1908,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="45"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="36"/>
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
@@ -1921,7 +1921,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="45"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="36"/>
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
@@ -1934,7 +1934,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="45"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="36"/>
@@ -1947,7 +1947,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="45"/>
+      <c r="G28" s="44"/>
       <c r="H28" s="36"/>
       <c r="I28" s="37"/>
       <c r="J28" s="36"/>
@@ -1960,7 +1960,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="45"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="36"/>
       <c r="I29" s="37"/>
       <c r="J29" s="36"/>
@@ -1973,7 +1973,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="45"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="36"/>
       <c r="I30" s="37"/>
       <c r="J30" s="36"/>
@@ -1986,7 +1986,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="45"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="36"/>
       <c r="I31" s="37"/>
       <c r="J31" s="36"/>
@@ -1999,7 +1999,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="45"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="36"/>
       <c r="I32" s="37"/>
       <c r="J32" s="36"/>
@@ -2012,7 +2012,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="45"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="36"/>
       <c r="I33" s="37"/>
       <c r="J33" s="36"/>
@@ -2025,7 +2025,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="45"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="36"/>
       <c r="I34" s="37"/>
       <c r="J34" s="36"/>
@@ -2038,7 +2038,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="45"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="36"/>
       <c r="I35" s="37"/>
       <c r="J35" s="36"/>
@@ -2051,7 +2051,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="45"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="36"/>
       <c r="I36" s="37"/>
       <c r="J36" s="36"/>
@@ -2064,7 +2064,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="45"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
       <c r="J37" s="36"/>
@@ -2077,7 +2077,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="45"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="36"/>
       <c r="I38" s="37"/>
       <c r="J38" s="36"/>
@@ -2090,7 +2090,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="45"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="36"/>
       <c r="I39" s="37"/>
       <c r="J39" s="36"/>
@@ -2103,7 +2103,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="45"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="36"/>
       <c r="I40" s="37"/>
       <c r="J40" s="36"/>
@@ -2116,7 +2116,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="45"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="36"/>
       <c r="I41" s="37"/>
       <c r="J41" s="36"/>
@@ -2129,7 +2129,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="45"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="36"/>
       <c r="I42" s="37"/>
       <c r="J42" s="36"/>
@@ -2142,7 +2142,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="45"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="36"/>
       <c r="I43" s="37"/>
       <c r="J43" s="36"/>
@@ -2155,7 +2155,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="45"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="36"/>
       <c r="I44" s="37"/>
       <c r="J44" s="36"/>
@@ -2168,7 +2168,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="45"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="36"/>
       <c r="I45" s="37"/>
       <c r="J45" s="36"/>
@@ -2181,7 +2181,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="45"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="36"/>
       <c r="I46" s="37"/>
       <c r="J46" s="36"/>
@@ -2194,7 +2194,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="45"/>
+      <c r="G47" s="44"/>
       <c r="H47" s="36"/>
       <c r="I47" s="37"/>
       <c r="J47" s="36"/>
@@ -2207,7 +2207,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="45"/>
+      <c r="G48" s="44"/>
       <c r="H48" s="36"/>
       <c r="I48" s="37"/>
       <c r="J48" s="36"/>
@@ -2220,7 +2220,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="45"/>
+      <c r="G49" s="44"/>
       <c r="H49" s="36"/>
       <c r="I49" s="37"/>
       <c r="J49" s="36"/>
@@ -2233,7 +2233,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="45"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="36"/>
       <c r="I50" s="37"/>
       <c r="J50" s="36"/>
@@ -2246,7 +2246,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="45"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="36"/>
       <c r="I51" s="37"/>
       <c r="J51" s="36"/>
@@ -2259,7 +2259,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="45"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="36"/>
       <c r="I52" s="37"/>
       <c r="J52" s="36"/>
@@ -2272,7 +2272,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="45"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="36"/>
       <c r="I53" s="37"/>
       <c r="J53" s="36"/>
@@ -2285,7 +2285,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="45"/>
+      <c r="G54" s="44"/>
       <c r="H54" s="36"/>
       <c r="I54" s="37"/>
       <c r="J54" s="36"/>
@@ -2298,7 +2298,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="45"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="36"/>
       <c r="I55" s="37"/>
       <c r="J55" s="36"/>

--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845D10ED-26C0-4AFA-A782-51396EC7B35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4801F8-F784-411D-BF2F-0CA04CF68182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Main element</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -155,8 +155,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -626,7 +626,7 @@
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -665,7 +665,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -807,6 +807,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -848,10 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1208,39 +1208,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1256,7 +1256,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1275,26 +1275,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
-      <c r="C8" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="66"/>
+      <c r="C8" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="67"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="66"/>
+      <c r="F8" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="67"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="20"/>
       <c r="F9" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="21"/>
@@ -1302,12 +1302,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="21"/>
@@ -1324,9 +1324,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="76"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="63"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -1335,9 +1335,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="76"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="63"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -1364,7 +1364,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1384,7 +1384,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="20"/>
@@ -1395,7 +1395,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
@@ -1406,7 +1406,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
@@ -1435,7 +1435,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="20"/>
@@ -1454,11 +1454,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UtmsZW94t+htO/8S/IHOaiN1KOymNKwKf4Uv0BqYjd/58oJHEt6UsAoE3YQ26XelBmCbVZh6vnqECJ2HtLN3kQ==" saltValue="P0SPyow0+ESsBbdNdmJdpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KNUMqZKJ4N+zQSICBOfly4QIN4w7uPj7XhnHLy59nurDreAcWdF/itYUewjYLJ+XVsqgPlni/onwMcqlC+01uw==" saltValue="xXKb0qXqoHvpEa2Suso0Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1543,113 +1543,113 @@
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
+      <c r="B2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="55" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="O5" s="54" t="s">
         <v>21</v>
-      </c>
-      <c r="O5" s="54" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">

--- a/form_reporting_templates/Form-2FC.xlsx
+++ b/form_reporting_templates/Form-2FC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data-reporting\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4801F8-F784-411D-BF2F-0CA04CF68182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA97D32-F5F1-4904-9AE2-BB2B6C35EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wX8sA2MiVV4hem5/4RTiTmcDJYFB86HqbOVJt9hNWIZw6gEt8u041CW+Lo33VdE+XPx62lk39pDAbSFn1bENfA==" workbookSaltValue="4+KZsXogYyQ9Ht7v5WkMIg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Finalisation date</t>
   </si>
   <si>
-    <t>Fishery</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>Liaison officer</t>
+  </si>
+  <si>
+    <t>Vessel type</t>
+  </si>
+  <si>
+    <t>Configuration</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1212,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -1233,14 +1236,14 @@
         <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1276,7 +1279,7 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="20"/>
@@ -1406,7 +1409,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
@@ -1516,7 +1519,7 @@
     <col min="5" max="5" width="11.42578125" style="39" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="38" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="8" max="8" width="15.7109375" style="38" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="38" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="39" customWidth="1"/>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -1580,7 +1583,7 @@
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>12</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>8</v>
@@ -1628,7 +1631,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>15</v>
@@ -1637,7 +1640,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>8</v>
@@ -2306,7 +2309,7 @@
       <c r="L55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4/x7C4c4a0AVjOBj6btm9hOkWI9rn64Xb2MGYaWzP1gOCmRzIyayQx4ap4mNv9s4uluXIm2VuMoUCNU9Zv82wg==" saltValue="9FPR1JcRdNMeuwdMyreDEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kiQTEPL4oEo/2qZDsNw9GXsxKzjVlPg4a6Nc1pevXYFCxYI5O1RW1QMnQ7wJl2NCmbJbsu9xC5UCAm9KWirCqQ==" saltValue="4e6mAyh86NxjRxNgc0n2pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="C4:E4"/>
@@ -2320,8 +2323,11 @@
       <formula>B6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:L5 B5:F5" xr:uid="{62AC337C-43B8-43CC-ABCC-7EE87C42A16F}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:F5 I5:L5 H5" xr:uid="{62AC337C-43B8-43CC-ABCC-7EE87C42A16F}">
+      <formula1>"&lt;0&gt;0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{5B262113-95A2-485C-B5B5-1EDF93672530}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2330,12 +2336,12 @@
     <hyperlink ref="D5" r:id="rId2" location="sourcesFC" xr:uid="{D508B0C5-71F1-4418-BA5D-6D532A3A0D47}"/>
     <hyperlink ref="E5" r:id="rId3" location="processingsFC" xr:uid="{3B28F9E8-FD32-4256-82C2-97BF03FEE964}"/>
     <hyperlink ref="F5" r:id="rId4" location="coverageTypes" xr:uid="{15A256B6-6B98-4ABF-81CC-D96AC29A08E2}"/>
-    <hyperlink ref="H5" r:id="rId5" location="boatTypes" xr:uid="{DADB17F2-537E-4DBC-AFEA-6EE304F8C6D0}"/>
+    <hyperlink ref="H5" r:id="rId5" location="boatTypes" display="Type" xr:uid="{DADB17F2-537E-4DBC-AFEA-6EE304F8C6D0}"/>
     <hyperlink ref="I5" r:id="rId6" location="mechanizationTypes" xr:uid="{40C3FFA1-CD46-4638-8E84-B19E43E165D4}"/>
     <hyperlink ref="J5" r:id="rId7" location="fishPreservationMethods" xr:uid="{2A56DBD0-E939-42A6-98DA-87DA852FD2E9}"/>
     <hyperlink ref="K5" r:id="rId8" location="fishStorageTypes" xr:uid="{9C5A0F26-DE48-4B7A-BF87-82196056DE69}"/>
     <hyperlink ref="L5" r:id="rId9" location="boatClassTypes" xr:uid="{263265AE-A782-4C7E-A95B-56C7C8AA2144}"/>
-    <hyperlink ref="B5" r:id="rId10" location="fisheries" xr:uid="{9C9CCABD-E884-4981-9553-0A805CCD876C}"/>
+    <hyperlink ref="B5" r:id="rId10" location="Vessel_Types" xr:uid="{9938127B-C147-49BE-9C85-EBE93EF4251D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
